--- a/biology/Botanique/Impatiente_pâle/Impatiente_pâle.xlsx
+++ b/biology/Botanique/Impatiente_pâle/Impatiente_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Impatiente_p%C3%A2le</t>
+          <t>Impatiente_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens pallida
 L'Impatiente pâle, Impatiens pallida, est une espèce de plante à fleurs de la famille des Balsaminaceae originaire du Canada et des États-Unis. Elle pousse dans les sols humides et est généralement associé à l'Impatiente du Cap, dont elle est étroitement apparentée, produisant des fleurs du milieu de l'été à l'automne[réf. nécessaire].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Impatiente_p%C3%A2le</t>
+          <t>Impatiente_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante peut atteindre jusqu'à 2 mètres (6 pi 7 po) de hauteur.  Les fleurs sont jaunes, avec des taches rougeâtres sur leurs faces, et se regroupent en petites quantités parmi les feuilles supérieures. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Impatiente_p%C3%A2le</t>
+          <t>Impatiente_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs de l'Impatiente pâle ont des éperons de nectar qui auraient joué un rôle dans la coévolution plante-pollinisateur. La plupart des éperons à nectar de l'Impatiente pâle sont perpendiculaires mais certains d'entre eux sont courbes[3].
-Ces fleurs avec éperons de nectar sont partiellement ou complètement pollinisées par les insectes. Le pollinisateur spécifique est déterminé par la courbure de l'éperon à nectar. Comme l'Impatiente pâle a des éperons de nectar perpendiculaires, les abeilles sont les principaux pollinisateurs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs de l'Impatiente pâle ont des éperons de nectar qui auraient joué un rôle dans la coévolution plante-pollinisateur. La plupart des éperons à nectar de l'Impatiente pâle sont perpendiculaires mais certains d'entre eux sont courbes.
+Ces fleurs avec éperons de nectar sont partiellement ou complètement pollinisées par les insectes. Le pollinisateur spécifique est déterminé par la courbure de l'éperon à nectar. Comme l'Impatiente pâle a des éperons de nectar perpendiculaires, les abeilles sont les principaux pollinisateurs.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Impatiente_p%C3%A2le</t>
+          <t>Impatiente_pâle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme Impatiens capensis , les jeunes pousses peuvent être bouillies (avec deux changements d'eau) comme herbe potagère , et les graines sont également comestibles. 
 Avec d'autres espèces de Jewelweed ou " touch-me-not ", c'est un remède traditionnel pour les éruptions cutanées, bien que des études contrôlées n'aient pas montré d'efficacité à cet effet. [ citation nécessaire ]
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Impatiente_p%C3%A2le</t>
+          <t>Impatiente_pâle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 novembre 2020)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 novembre 2020) :
 variété Impatiens pallida var. alba Clute</t>
         </is>
       </c>
